--- a/Our_Labs/Lab_10/Arkusz.xlsx
+++ b/Our_Labs/Lab_10/Arkusz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F33BBA8-283A-48E0-A022-E2A76D9E2E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0063F1C-9350-4B8E-A27E-F0F417B26C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB23AE6C-7AFD-49C4-B7E9-6F27BC8790F1}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <r>
       <t>J</t>
@@ -244,12 +266,21 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>B, mT</t>
+  </si>
+  <si>
+    <t>REGLINEP dla Is=12mA</t>
+  </si>
+  <si>
+    <t>REGLINEP dla Is=24mA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +298,14 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -381,30 +420,11 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,6 +439,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -434,6 +473,1513 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15861636379353333"/>
+          <c:y val="0.10218205545977997"/>
+          <c:w val="0.80091815674247246"/>
+          <c:h val="0.7130887228464069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51363778620215683"/>
+                  <c:y val="0.22202810938580225"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A95A-4A8F-A027-CBB3A9BC94B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.39150523996454706"/>
+                  <c:y val="0.53990758017873008"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A95A-4A8F-A027-CBB3A9BC94B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2075447295"/>
+        <c:axId val="2060759311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2075447295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060759311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2060759311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075447295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588066</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DC2E31-EAC1-3142-F81B-2E55E7E30A12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00296</cdr:x>
+      <cdr:y>0.03432</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1103</cdr:x>
+      <cdr:y>0.13158</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7332D60-0873-0301-FF0F-618821A9B5AD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="16884" y="113151"/>
+          <a:ext cx="612595" cy="320596"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="-25000"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>, mV </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89265</cdr:x>
+      <cdr:y>0.90275</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF3F3EE-7CF1-56A2-80F6-664949488306}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5094123" y="2975883"/>
+          <a:ext cx="612595" cy="320596"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>B, mT</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39187</cdr:x>
+      <cdr:y>0.00251</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52395</cdr:x>
+      <cdr:y>0.06784</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="pole tekstowe 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC9E8FF-4C15-6BD6-6DE0-8D2406701C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2236305" y="8282"/>
+          <a:ext cx="753717" cy="215348"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> = 12 mA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54011</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67218</cdr:x>
+      <cdr:y>0.06533</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6378C0A7-BFFB-D2AE-AD6F-3D08B6CDFDDC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3082233" y="0"/>
+          <a:ext cx="753717" cy="215348"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> = 24 mA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,582 +2299,760 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0EB723-4E5F-4EC8-B0D4-BD4E3F92DE6D}">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>0.2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
         <v>14.3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="1">
         <v>0.95499999999999996</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="1">
         <v>5.7</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="1">
         <v>1.702</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>0.4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
         <v>16.7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="1">
         <v>9.1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="1">
         <v>1.7010000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>0.6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1">
         <v>18.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="1">
         <v>12.9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="1">
         <v>1.702</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>0.8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1">
         <v>21</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="1">
         <v>1.702</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
         <v>22.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="1">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="1">
         <v>20.9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="1">
         <v>1.704</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>1.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
+        <v>175</v>
+      </c>
+      <c r="D9" s="1">
         <v>24.8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="1">
         <v>24.7</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="1">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>1.4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1">
         <v>27</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="1">
         <v>28.9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="1">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>1.6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1">
         <v>29.1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="1">
         <v>32</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="1">
         <v>1.706</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>1.8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
+        <v>255</v>
+      </c>
+      <c r="D12" s="1">
         <v>30.7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="1">
         <v>1.706</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
+        <v>280</v>
+      </c>
+      <c r="D13" s="1">
         <v>32.700000000000003</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="1">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
+        <v>300</v>
+      </c>
+      <c r="D14" s="1">
         <v>34.4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="1">
         <v>42.2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="1">
         <v>1.706</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>2.4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
+        <v>320</v>
+      </c>
+      <c r="D15" s="1">
         <v>36.1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="1">
         <v>45.1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="1">
         <v>1.708</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="13">
         <v>4.8</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
         <v>6.5</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="13">
         <v>9.5</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
         <v>12.4</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="13">
         <v>14.1</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
         <v>18.899999999999999</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>8</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="13">
         <v>18</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13">
         <v>24.8</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="13">
         <v>21.3</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13">
         <v>30</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>12</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="13">
         <v>24.1</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13">
         <v>34.700000000000003</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="F27" s="13"/>
+      <c r="J27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="M27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>14</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="13">
         <v>25.9</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13">
         <v>38.700000000000003</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+      <c r="F28" s="13"/>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28:K32">LINEST(D4:D15,C4:C15,TRUE,TRUE)</f>
+        <v>7.3508420941260186E-2</v>
+      </c>
+      <c r="K28">
+        <v>12.202871423945423</v>
+      </c>
+      <c r="M28" cm="1">
+        <f t="array" ref="M28:N32">LINEST(F4:F15,C4:C15,TRUE,TRUE)</f>
+        <v>0.13566756759356335</v>
+      </c>
+      <c r="N28">
+        <v>1.2300013465811261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>16</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="13">
         <v>27.7</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13">
         <v>42.3</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="F29" s="13"/>
+      <c r="J29">
+        <v>7.4994912901342285E-4</v>
+      </c>
+      <c r="K29">
+        <v>0.15430769046198126</v>
+      </c>
+      <c r="M29">
+        <v>1.5314072179355507E-3</v>
+      </c>
+      <c r="N29">
+        <v>0.31509858710991751</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <v>18</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="13">
         <v>28.6</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13">
         <v>45.3</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="F30" s="13"/>
+      <c r="J30">
+        <v>0.99896022918966476</v>
+      </c>
+      <c r="K30">
+        <v>0.24181295336118694</v>
+      </c>
+      <c r="M30">
+        <v>0.99872744580443673</v>
+      </c>
+      <c r="N30">
+        <v>0.49378562870629905</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>20</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="13">
         <v>29.4</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13">
         <v>47.8</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="F31" s="13"/>
+      <c r="J31">
+        <v>9607.5040697431305</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>7848.2114890385437</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>22</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="13">
         <v>30</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13">
         <v>49.8</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="13"/>
+      <c r="J32">
+        <v>561.78443162253416</v>
+      </c>
+      <c r="K32">
+        <v>0.58473504413259569</v>
+      </c>
+      <c r="M32">
+        <v>1913.5842575288314</v>
+      </c>
+      <c r="N32">
+        <v>2.43824247116875</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <v>24</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="13">
         <v>31</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13">
         <v>51.2</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5">
+      <c r="D38" s="3"/>
+      <c r="E38" s="2">
         <v>46</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5">
+      <c r="D39" s="3"/>
+      <c r="E39" s="2">
         <v>-36.5</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5">
+      <c r="D40" s="3"/>
+      <c r="E40" s="2">
         <v>-50</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5">
+      <c r="D41" s="3"/>
+      <c r="E41" s="2">
         <v>34</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
+  <mergeCells count="56">
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
@@ -1338,36 +3062,26 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>